--- a/config_6.8/act_cjdb_config.xlsx
+++ b/config_6.8/act_cjdb_config.xlsx
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,33 +2281,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2315,42 +2306,51 @@
 </settings>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_6.8/act_cjdb_config.xlsx
+++ b/config_6.8/act_cjdb_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>title|标题</t>
   </si>
@@ -782,6 +782,10 @@
   </si>
   <si>
     <t>3,"cjdb_bg_jys",1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,"zpg_icon_shui",6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1545,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1562,7 @@
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1627,9 +1631,8 @@
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,24 +2284,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2306,51 +2322,38 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>